--- a/WebMaxiFarmacia/excel/archivoproducto.xlsx
+++ b/WebMaxiFarmacia/excel/archivoproducto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,43 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>alkaseltser</t>
-  </si>
-  <si>
-    <t>kldfjaklsdjf  djfalskdjf</t>
-  </si>
-  <si>
-    <t>para dolores</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>pa1</t>
-  </si>
-  <si>
-    <t>osoprasol</t>
-  </si>
-  <si>
-    <t>sdkfjaklsjdf kj fk</t>
-  </si>
-  <si>
-    <t>para la cabeza</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>pa2</t>
-  </si>
-  <si>
-    <t>osoprasole</t>
-  </si>
-  <si>
-    <t>fkjashkj</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>para el estomago</t>
   </si>
@@ -68,7 +32,22 @@
     <t>B2</t>
   </si>
   <si>
-    <t>pa3</t>
+    <t>diclofenaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 mg </t>
+  </si>
+  <si>
+    <t>Principio activo</t>
+  </si>
+  <si>
+    <t>paricina</t>
+  </si>
+  <si>
+    <t>50 mg para adultos</t>
+  </si>
+  <si>
+    <t>sana heridas</t>
   </si>
 </sst>
 </file>
@@ -104,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,49 +400,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>123455</v>
+        <v>19191999</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>6.5</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1">
         <v>2</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123456</v>
+        <v>18181889</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -471,60 +461,35 @@
         <v>6</v>
       </c>
       <c r="D2">
+        <v>2.5</v>
+      </c>
+      <c r="E2">
+        <v>3.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>2.5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>123457</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>